--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200306.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200306.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15651\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\gansu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8126A06-30D3-435E-958C-A13BDD4BB8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10456,7 +10457,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10915,50 +10916,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" style="13" customWidth="1"/>
+    <col min="11" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.3046875" style="13" customWidth="1"/>
-    <col min="23" max="23" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.26953125" style="13" customWidth="1"/>
+    <col min="23" max="23" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.84375" style="13"/>
+    <col min="40" max="40" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.05" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11156,7 +11159,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="16" customHeight="1">
+    <row r="3" spans="1:40" ht="16.05" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16" customHeight="1">
+    <row r="4" spans="1:40" ht="16.05" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11274,7 +11277,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1">
+    <row r="5" spans="1:40" ht="16.05" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11336,7 +11339,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16" customHeight="1">
+    <row r="6" spans="1:40" ht="16.05" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16" customHeight="1">
+    <row r="7" spans="1:40" ht="16.05" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16" customHeight="1">
+    <row r="8" spans="1:40" ht="16.05" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16" customHeight="1">
+    <row r="9" spans="1:40" ht="16.05" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16" customHeight="1">
+    <row r="10" spans="1:40" ht="16.05" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11640,7 +11643,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16" customHeight="1">
+    <row r="11" spans="1:40" ht="16.05" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11696,7 +11699,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16" customHeight="1">
+    <row r="12" spans="1:40" ht="16.05" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16" customHeight="1">
+    <row r="13" spans="1:40" ht="16.05" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16" customHeight="1">
+    <row r="14" spans="1:40" ht="16.05" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -11882,7 +11885,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16" customHeight="1">
+    <row r="15" spans="1:40" ht="16.05" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16" customHeight="1">
+    <row r="16" spans="1:40" ht="16.05" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" customHeight="1">
+    <row r="17" spans="1:33" ht="16.05" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" customHeight="1">
+    <row r="18" spans="1:33" ht="16.05" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" customHeight="1">
+    <row r="19" spans="1:33" ht="16.05" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -12196,54 +12199,54 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3" r:id="rId2"/>
-    <hyperlink ref="V4" r:id="rId3"/>
-    <hyperlink ref="V6" r:id="rId4"/>
-    <hyperlink ref="V8" r:id="rId5"/>
-    <hyperlink ref="V10" r:id="rId6"/>
-    <hyperlink ref="V12" r:id="rId7"/>
-    <hyperlink ref="V14" r:id="rId8"/>
-    <hyperlink ref="V16" r:id="rId9"/>
-    <hyperlink ref="V18" r:id="rId10"/>
-    <hyperlink ref="V5" r:id="rId11"/>
-    <hyperlink ref="V7" r:id="rId12"/>
-    <hyperlink ref="V9" r:id="rId13"/>
-    <hyperlink ref="V11" r:id="rId14"/>
-    <hyperlink ref="V13" r:id="rId15"/>
-    <hyperlink ref="V15" r:id="rId16"/>
-    <hyperlink ref="V17" r:id="rId17"/>
-    <hyperlink ref="V19" r:id="rId18"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="V19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12256,7 +12259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12264,10 +12267,10 @@
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
